--- a/loaded_influencer_data/thatsophiaaa/thatsophiaaa_video.xlsx
+++ b/loaded_influencer_data/thatsophiaaa/thatsophiaaa_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7486668739895774495</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7489601070117834015</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,97 +528,99 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>나와 함께 유리 피부 달성 | Guerlain Abeille Royale의 선물 유스 워터리 오일 세럼@Guerlain #grwm #skincare #girlthings</t>
+          <t>Newest addition to my early morning skincare journey:
+Madeca Derma Shield Safe Sun Essence. It protects my skin from UV rays. You can find it on Yesstyle.com and use code “SOPHIAAA8”</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.5</v>
+        <v>7.978723404255319</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7486648768796871966</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7489253708832853278</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>나는 봄을 사랑</t>
+          <t>Literally the best thing ever @Medicube Global Collagen Night Wrapping Mask #medicube #glassskin
+#kbeauty</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.03717472118959</v>
+        <v>7.719298245614035</v>
       </c>
       <c r="I3" t="n">
-        <v>8.921933085501859</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.115241635687732</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7485953456709045534</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7488902606190939422</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -628,47 +630,48 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>나의 장밋빛 핑크 봄 메이크업 루틴 제품: 블러쉬 드 뷰트, 01 실키 로즈 립라이너, 02 강렬한 카페 립글로스, 러브레터 @Dolce &amp; Gabbana 무화과 스킨 퍼펙터, 샤인 컨트롤 블러링 파우더, 00 유니버설 화이트 트러플 비건 퍼스트 스프레이 세럼</t>
+          <t>All you need is 3 minutes @Medicube Global Zero Pore Blackhead Deep
+Cleansing Oil #medicube</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.00478468899522</v>
+        <v>5.705705705705705</v>
       </c>
       <c r="I4" t="n">
-        <v>10.52631578947368</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4784688995215311</v>
+        <v>0.3003003003003003</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4784688995215311</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7483754954138717470</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7488502828168727838</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -678,97 +681,101 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>업데이트된 스킨케어 루틴 하이드로 부스트 히알루론산 하이드레이팅 젤 크림, 하이드레이팅 립 슬리핑 마스크</t>
+          <t>One thing that I started using that helped me achieve glass skin
+@Medicube Global Collagen Night Wrapping Mask</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.844559585492227</v>
+        <v>11.72638436482085</v>
       </c>
       <c r="I5" t="n">
-        <v>8.808290155440414</v>
+        <v>10.09771986970684</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.036269430051814</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5181347150259068</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7483367737134206239</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7487762134366014750</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>내가 좋아하는 립 오일 키스 젤리 글로스 쥬시 립 글로스, 스위트 코튼 캔디 및 버블검@Too Faced #lipgloss #lipoil #grwm</t>
+          <t>My faveeee rosy glow highlighter ever
+product i used:
+@wetnwildbeauty Mega Glo Blushlighter
+#makeup</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.555555555555555</v>
+        <v>9.498680738786279</v>
       </c>
       <c r="I6" t="n">
-        <v>5.158730158730158</v>
+        <v>9.498680738786279</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3968253968253968</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.5277044854881267</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7482634948965453086</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7487464815057702175</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -778,97 +785,101 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>집착!! 나는 이 K뷰티 세럼을 좋아한다. 매일 아침 밤 바르고 모공 감소 세럼@FRANKLY GLOBAL @FRANKLY #girlthings</t>
+          <t>I only wear concealer
+products i used:
+@sephora
+#makeup #makeuptutorial #grwm #grwmmakeup</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.732360097323602</v>
+        <v>11.3314447592068</v>
       </c>
       <c r="I7" t="n">
-        <v>9.245742092457421</v>
+        <v>10.19830028328612</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4866180048661801</v>
+        <v>1.13314447592068</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7299270072992701</v>
+        <v>0.84985835694051</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7481522144749505822</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7487390607694908703</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>452</v>
+        <v>348</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Skincare is girl therapy @Nuricle Middle East @nuricle_kr Face serum: BETELCHLOROUS S.O.S Rescue Dose, ECTO-PDRN 10% Extreme Dose #grwm #girlthings #makeup #glowskin #kbeauty #koreanskincare #girltherapy</t>
+          <t>When Korean collagen skincare is giving hydration &amp; glow, you know it’s going to be amazing
+@Medicube Global</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11.72566371681416</v>
+        <v>7.758620689655173</v>
       </c>
       <c r="I8" t="n">
-        <v>10.61946902654867</v>
+        <v>7.758620689655173</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.106194690265487</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4424778761061947</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7480033321745992991</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7487268076363320606</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -878,194 +889,194 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Your sign</t>
+          <t>Get ready for a sunny day! This Korean serum + sunscreen is a game changer for glow skin @belif USA Dew Guard Milky Sun Serum SPF 40, Find it on Amazon</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.83292978208232</v>
+        <v>5.789473684210527</v>
       </c>
       <c r="I9" t="n">
-        <v>11.86440677966102</v>
+        <v>5.789473684210527</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9685230024213075</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4842615012106538</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7480027946665659678</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7487113234747542815</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Loveeeee a super highlighter @loréal paris usa Lumi Le Glow Highlighter Stick, Glowy Sparking Rose #grwm</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8.717948717948717</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.948717948717948</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7486668739895774495</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>나와 함께 유리 피부 달성 | Guerlain Abeille Royale의 선물 유스 워터리 오일 세럼@Guerlain #grwm #skincare #girlthings</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7486648768796871966</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>269</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>당신의 사인</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7.82608695652174</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.82608695652174</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7480017912032398622</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>370</v>
-      </c>
-      <c r="C11" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>이 한국 시트 마스크는 내가 가장 좋아하는 스킨케어 에센셜 오리지널 콜라겐 마스크는 아마존에서 구입할 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.27027027027027</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7479293145885232414</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>422</v>
-      </c>
-      <c r="C12" t="n">
-        <v>52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>나와 내 사랑#cat #catsoftiktok #daily</t>
+          <t>나는 봄을 사랑</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>13.50710900473934</v>
+        <v>10.03717472118959</v>
       </c>
       <c r="I12" t="n">
-        <v>12.32227488151659</v>
+        <v>8.921933085501859</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.184834123222749</v>
+        <v>1.115241635687732</v>
       </c>
       <c r="L12" t="n">
-        <v>1.184834123222749</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7479277535562452254</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7485953456709045534</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -1074,101 +1085,101 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Trying New Fwee Glowy Jelly Pot @fwee official #grwm #girlthings #makeup #glowskin #girltherapy #fwee #lipgloss #lipstick #redlips</t>
+          <t>나의 장밋빛 핑크 봄 메이크업 루틴 제품: 블러쉬 드 뷰트, 01 실키 로즈 립라이너, 02 강렬한 카페 립글로스, 러브레터 @Dolce &amp; Gabbana 무화과 스킨 퍼펙터, 샤인 컨트롤 블러링 파우더, 00 유니버설 화이트 트러플 비건 퍼스트 스프레이 세럼</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.634551495016613</v>
+        <v>11.00478468899522</v>
       </c>
       <c r="I13" t="n">
-        <v>8.970099667774086</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6644518272425249</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="L13" t="n">
-        <v>2.325581395348837</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7479265210054806814</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7483754954138717470</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>글로우 스킨을 위한 스킨케어 루틴 Lancme Advanced Genifique 안티에이징 페이스 세럼 @AtoBarrier 365 크림 바나나 브라이트 + 아이 크렘 마미 와타 울트라 진정 구조 미스트</t>
+          <t>업데이트된 스킨케어 루틴 하이드로 부스트 히알루론산 하이드레이팅 젤 크림, 하이드레이팅 립 슬리핑 마스크</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.459214501510575</v>
+        <v>9.844559585492227</v>
       </c>
       <c r="I14" t="n">
-        <v>7.552870090634441</v>
+        <v>8.808290155440414</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.906344410876133</v>
+        <v>1.036269430051814</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.5181347150259068</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7478873356234706207</t>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7483367737134206239</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1178,394 +1189,394 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>실제로 작동하는 K뷰티 주름 패치 주름 수리 패치 찡그린 라인 및 하이드로겔 아이 패치    @marshique_official</t>
+          <t>내가 좋아하는 립 오일 키스 젤리 글로스 쥬시 립 글로스, 스위트 코튼 캔디 및 버블검@Too Faced #lipgloss #lipoil #grwm</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.008583690987124</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I15" t="n">
-        <v>6.008583690987124</v>
+        <v>5.158730158730158</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7478593760511708446</t>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7482634948965453086</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>집착!! 나는 이 K뷰티 세럼을 좋아한다. 매일 아침 밤 바르고 모공 감소 세럼@FRANKLY GLOBAL @FRANKLY #girlthings</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9.732360097323602</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.245742092457421</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4866180048661801</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7299270072992701</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7481522144749505822</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>452</v>
+      </c>
+      <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Skincare is girl therapy @Nuricle Middle East @nuricle_kr Face serum: BETELCHLOROUS S.O.S Rescue Dose, ECTO-PDRN 10% Extreme Dose #grwm #girlthings #makeup #glowskin #kbeauty #koreanskincare #girltherapy</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>11.72566371681416</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.61946902654867</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.106194690265487</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4424778761061947</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7480033321745992991</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>413</v>
+      </c>
+      <c r="C18" t="n">
+        <v>49</v>
+      </c>
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>안녕하세요 케이뷰티 애호가 여러분, LA에서 열리는 메디큐브 팝업스토어 행사에 놀러 오세요! @Medicube Global</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7.468879668049793</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.809128630705394</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.659751037344398</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8298755186721992</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7478381495674015006</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>388</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Your sign</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>12.83292978208232</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.86440677966102</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9685230024213075</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4842615012106538</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7480027946665659678</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>345</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>The blush color is very beautiful and high pigmented @fwee Blurry Pudding Pot, CR03 BFF #grwm #girlthings #makeup #glowskin #girltherapy #fwee #blush</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9.536082474226804</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.989690721649484</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.54639175257732</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.7731958762886598</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7478127466847030559</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>135</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>NuFace - 실제로 작동하는 눈 패치로 인해 미세한 라인과 밝은 피부를 줄여줍니다. IonPex Hydra-Gel 파워 패치</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>12.59259259259259</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11.85185185185185</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.7407407407407408</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.7407407407407408</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7478010928768781598</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>당신의 사인</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7.82608695652174</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.82608695652174</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7480017912032398622</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>370</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>My go-to MAC Mineral blush - Like Me, Love Me @maccosmetics #mac #macmineralizeblush #powderblush #grwm #girlthings #makeup #glowskin #girltherapy #macmakeup</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2.167766258246937</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.979264844486334</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1885014137606032</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0942507068803016</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7477642528209030430</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>147</v>
-      </c>
-      <c r="C20" t="n">
-        <v>21</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>내 이동 MAC 미네랄 블러셔 - Like Me, Love Me@maccosmetics #mac #macmineralizeblush #powderblush #grwm</t>
+          <t>이 한국 시트 마스크는 내가 가장 좋아하는 스킨케어 에센셜 오리지널 콜라겐 마스크는 아마존에서 구입할 수 있습니다.</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18.36734693877551</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="I20" t="n">
-        <v>14.28571428571428</v>
+        <v>10.27027027027027</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.081632653061225</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6802721088435374</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-10</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7477482086228643102</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7479293145885232414</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>이 노래 좋아하세요?#girlthings</t>
+          <t>나와 내 사랑#cat #catsoftiktok #daily</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11.64021164021164</v>
+        <v>13.50710900473934</v>
       </c>
       <c r="I21" t="n">
-        <v>9.523809523809524</v>
+        <v>12.32227488151659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.116402116402116</v>
+        <v>1.184834123222749</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5291005291005291</v>
+        <v>1.184834123222749</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-08</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7477083304311786782</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7479277535562452254</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>이 노래 좋아하세요?#girlthings</t>
+          <t>Trying New Fwee Glowy Jelly Pot @fwee official #grwm #girlthings #makeup #glowskin #girltherapy #fwee #lipgloss #lipstick #redlips</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.140127388535031</v>
+        <v>9.634551495016613</v>
       </c>
       <c r="I22" t="n">
-        <v>4.140127388535031</v>
+        <v>8.970099667774086</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.6644518272425249</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9554140127388535</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-08</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7476762330244631839</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7479265210054806814</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -1574,98 +1585,98 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>안티에이징을 위한 한국 세럼 | IOPE IOPE PDRN 카페인 샷 세럼 선물@IOPE OFFICIAL @Amazon Beauty #grwm #girlthings</t>
+          <t>글로우 스킨을 위한 스킨케어 루틴 Lancme Advanced Genifique 안티에이징 페이스 세럼 @AtoBarrier 365 크림 바나나 브라이트 + 아이 크렘 마미 와타 울트라 진정 구조 미스트</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.529411764705882</v>
+        <v>8.459214501510575</v>
       </c>
       <c r="I23" t="n">
-        <v>2.823529411764706</v>
+        <v>7.552870090634441</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.906344410876133</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-03-08</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7476699642621594910</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7478873356234706207</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>누구나 아름다운 눈을 가지고 있다#grwm #girlthings #makeup #glowskin #girltherapy #beauty</t>
+          <t>실제로 작동하는 K뷰티 주름 패치 주름 수리 패치 찡그린 라인 및 하이드로겔 아이 패치    @marshique_official</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9.063444108761329</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="I24" t="n">
-        <v>8.459214501510575</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6042296072507553</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6042296072507553</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-03-07</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7476380683124886815</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7478593760511708446</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -1678,47 +1689,47 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>녹음 버튼을 고스트하기 위해 몇 시간 동안 메이크업을 했습니다.#daily #dailyroutine</t>
+          <t>안녕하세요 케이뷰티 애호가 여러분, LA에서 열리는 메디큐브 팝업스토어 행사에 놀러 오세요! @Medicube Global</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.72386058981233</v>
+        <v>7.468879668049793</v>
       </c>
       <c r="I25" t="n">
-        <v>9.651474530831099</v>
+        <v>5.809128630705394</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.072386058981233</v>
+        <v>1.659751037344398</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5361930294906166</v>
+        <v>0.8298755186721992</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7476365186790657310</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7478381495674015006</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1728,97 +1739,97 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Everyday makeup routine for work @Diorbeauty Addict Lip Glow Oil, 015 Cherry @wakemake_official WM X NETFLIX SQUID GAME Soft Blurring Eye Palette @Lancôme Lash Idôle Mascara, Glossy Black @tarte cosmetics eyelash curler #grwm #girlthings #makeup #glowskin #girltherapy #koreanmakeup #diormakeup #diorlipoil #lancome</t>
+          <t>The blush color is very beautiful and high pigmented @fwee Blurry Pudding Pot, CR03 BFF #grwm #girlthings #makeup #glowskin #girltherapy #fwee #blush</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>11.35135135135135</v>
+        <v>9.536082474226804</v>
       </c>
       <c r="I26" t="n">
-        <v>11.35135135135135</v>
+        <v>7.989690721649484</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7475999502046924062</t>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7478127466847030559</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925</v>
+        <v>135</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>아름다운 핑크 립 틴트! TIRTIR 워터리즘 글로우 틴트, 모브 로즈@TIRTIR Inc. #grwm #girlthings #makeup #kbeauty</t>
+          <t>NuFace - 실제로 작동하는 눈 패치로 인해 미세한 라인과 밝은 피부를 줄여줍니다. IonPex Hydra-Gel 파워 패치</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.513513513513514</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="I27" t="n">
-        <v>1.513513513513514</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-05</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7475980240339160350</t>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7478010928768781598</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>215</v>
+        <v>1061</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1828,47 +1839,47 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>이것은 나의 빠른 피부 준비 루틴입니다 - 민감하고 건조한 피부를 위한 한국 시트 마스크@Dr.Jart+ North America #grwm</t>
+          <t>My go-to MAC Mineral blush - Like Me, Love Me @maccosmetics #mac #macmineralizeblush #powderblush #grwm #girlthings #makeup #glowskin #girltherapy #macmakeup</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.581395348837209</v>
+        <v>2.167766258246937</v>
       </c>
       <c r="I28" t="n">
-        <v>5.581395348837209</v>
+        <v>1.979264844486334</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.1885014137606032</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.0942507068803016</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-05</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7475964770844249374</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7477642528209030430</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1878,47 +1889,47 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>I love to take 1000 pictures #girlthings #girlthings</t>
+          <t>내 이동 MAC 미네랄 블러셔 - Like Me, Love Me@maccosmetics #mac #macmineralizeblush #powderblush #grwm</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9.602649006622517</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="I29" t="n">
-        <v>5.960264900662252</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.642384105960265</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3311258278145696</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-04</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/photo/7475953850348735774</t>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7477482086228643102</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>447</v>
+        <v>189</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1928,44 +1939,44 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>나는 1000장의 사진을 찍는 것을 좋아한다#girlthings</t>
+          <t>이 노래 좋아하세요?#girlthings</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.131991051454139</v>
+        <v>11.64021164021164</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9082774049217</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2237136465324385</v>
+        <v>2.116402116402116</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2237136465324385</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-03</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7475628984735206687</t>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7477083304311786782</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1974,18 +1985,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Makeup base check #grwm #girlthings #makeup #glowskin #girltherapy #grwm #girlthings #makeup #glowskin #girltherapy</t>
+          <t>이 노래 좋아하세요?#girlthings</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.209150326797386</v>
+        <v>4.140127388535031</v>
       </c>
       <c r="I31" t="n">
-        <v>6.209150326797386</v>
+        <v>4.140127388535031</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1994,125 +2005,125 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.326797385620915</v>
+        <v>0.9554140127388535</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7475592646728092959</t>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7476762330244631839</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C32" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>메이크업 베이스 체크#grwm #girlthings #makeup #glowskin #girltherapy</t>
+          <t>안티에이징을 위한 한국 세럼 | IOPE IOPE PDRN 카페인 샷 세럼 선물@IOPE OFFICIAL @Amazon Beauty #grwm #girlthings</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>16.93002257336343</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="I32" t="n">
-        <v>14.67268623024831</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.257336343115124</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32" t="n">
-        <v>1.805869074492099</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-01</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474853935883259166</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7476699642621594910</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>나의 부드러운 글램 메이크업 루틴. 모든 메이크업 단계는 거지에게 쉽습니다. 포에버 내추럴 벨벳 매트 콤팩트 파운데이션 클라우드 크러쉬 블러린프 파우더 블러셔 킬라 와트 프리스타일 하이라이터 누드 글로스 립스틱 슈퍼 플러프 브로우 무스 | 하이퍼 컬 마스카라 이탈리안 화이트 트러플 퍼스트 스프레이 세럼</t>
+          <t>누구나 아름다운 눈을 가지고 있다#grwm #girlthings #makeup #glowskin #girltherapy #beauty</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9.393939393939393</v>
+        <v>9.063444108761329</v>
       </c>
       <c r="I33" t="n">
-        <v>9.393939393939393</v>
+        <v>8.459214501510575</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.6042296072507553</v>
       </c>
       <c r="L33" t="n">
-        <v>1.212121212121212</v>
+        <v>0.6042296072507553</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-01</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474493207397535007</t>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7476380683124886815</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C34" t="n">
         <v>36</v>
@@ -2124,151 +2135,151 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>내 아기#cat #catsoftiktok #catlover</t>
+          <t>녹음 버튼을 고스트하기 위해 몇 시간 동안 메이크업을 했습니다.#daily #dailyroutine</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>11.04972375690608</v>
+        <v>10.72386058981233</v>
       </c>
       <c r="I34" t="n">
-        <v>9.94475138121547</v>
+        <v>9.651474530831099</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.104972375690608</v>
+        <v>1.072386058981233</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2762430939226519</v>
+        <v>0.5361930294906166</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-28</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474484369697148190</t>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7476365186790657310</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>566</v>
+        <v>370</v>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>내가 가장 좋아하는 립피 중 하나는 MAC 벨벳 테디 립스틱입니다. 어떤 경우에도 완벽합니다!@MAC Cosmetics USA</t>
+          <t>Everyday makeup routine for work @Diorbeauty Addict Lip Glow Oil, 015 Cherry @wakemake_official WM X NETFLIX SQUID GAME Soft Blurring Eye Palette @Lancôme Lash Idôle Mascara, Glossy Black @tarte cosmetics eyelash curler #grwm #girlthings #makeup #glowskin #girltherapy #koreanmakeup #diormakeup #diorlipoil #lancome</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12.89752650176678</v>
+        <v>11.35135135135135</v>
       </c>
       <c r="I35" t="n">
-        <v>12.01413427561837</v>
+        <v>11.35135135135135</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.88339222614841</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.353356890459364</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-28</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474479881762376991</t>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7475999502046924062</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362</v>
+        <v>925</v>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>내 스킨케어 루틴 행오버 필로우 밤 당근 카로틴 데일리 마스크 배리어 부스터 오렌지 발효 에센스, 바나나 브라이트 아이 랑콤 고급 제니피크 래디언스 부스팅 안티에이징 페이스 세럼 바이탈 하이드라 솔루션 워터 크림 글로우 모이스처라이저 히알루론산 마미 와타 미스트 클리어 브로 젤 블레이드 &amp; 쉐이드 나노 브로 펜슬 루즈 퍼 쿠튀르</t>
+          <t>아름다운 핑크 립 틴트! TIRTIR 워터리즘 글로우 틴트, 모브 로즈@TIRTIR Inc. #grwm #girlthings #makeup #kbeauty</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14.91712707182321</v>
+        <v>1.513513513513514</v>
       </c>
       <c r="I36" t="n">
-        <v>13.53591160220994</v>
+        <v>1.513513513513514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.38121546961326</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38121546961326</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474137520138177822</t>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7475980240339160350</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2278,94 +2289,94 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>나랑 같이 준비하지 마! 나는 메이크업을 지울 때 이 부드러운 클렌징 밤을 사용하는 것을 좋아합니다. 프로 콜라겐 클렌징 밤</t>
+          <t>이것은 나의 빠른 피부 준비 루틴입니다 - 민감하고 건조한 피부를 위한 한국 시트 마스크@Dr.Jart+ North America #grwm</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8.30945558739255</v>
+        <v>5.581395348837209</v>
       </c>
       <c r="I37" t="n">
-        <v>8.022922636103152</v>
+        <v>5.581395348837209</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2865329512893983</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2865329512893983</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474113315006844190</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7475964770844249374</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3126</v>
+        <v>302</v>
       </c>
       <c r="C38" t="n">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>최고의 파우더 파운데이션 - 부드럽고 쉽게 바를 수 있는 포에버 내추럴 벨벳@Diorbeauty #diorbeauty #dior #diormakeup</t>
+          <t>I love to take 1000 pictures #girlthings #girlthings</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2.335252719129878</v>
+        <v>9.602649006622517</v>
       </c>
       <c r="I38" t="n">
-        <v>2.143314139475368</v>
+        <v>5.960264900662252</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1919385796545106</v>
+        <v>3.642384105960265</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1599488163787588</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7474081223631998239</t>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/photo/7475953850348735774</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -2378,164 +2389,164 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>오늘의 내 립글로스 볼륨 립글로스@makeupbymario #grwm #girlthings #makeup #gloss #glossylips</t>
+          <t>나는 1000장의 사진을 찍는 것을 좋아한다#girlthings</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9.13978494623656</v>
+        <v>3.131991051454139</v>
       </c>
       <c r="I39" t="n">
-        <v>8.870967741935484</v>
+        <v>2.9082774049217</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473750824246578463</t>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7475628984735206687</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>그녀는 내 아기야#catsoftiktok #catlover</t>
+          <t>Makeup base check #grwm #girlthings #makeup #glowskin #girltherapy #grwm #girlthings #makeup #glowskin #girltherapy</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7.669616519174041</v>
+        <v>6.209150326797386</v>
       </c>
       <c r="I40" t="n">
-        <v>7.374631268436578</v>
+        <v>6.209150326797386</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2949852507374631</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8849557522123894</v>
+        <v>0.326797385620915</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-26</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473736307055840543</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7475592646728092959</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>메이크업 베이스 체크#grwm #girlthings #makeup #glowskin #girltherapy</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>16.93002257336343</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.67268623024831</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.257336343115124</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.805869074492099</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474853935883259166</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>330</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>최고의 광채 세팅 스프레이 마미 와타 울트라 진정 구조 안개@EADEM #grwm #girlthings #makeup #glowskin #grwm</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7.079646017699115</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.784660766961652</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.2949852507374631</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.179941002949852</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473725753738267934</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>398</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>긴 머리를 곧게 펴는 방법 - 비단결 같고 부드럽습니다. 내가 가장 좋아하는 헤어 오일은 완전한 영양 샤인 드롭에서 나온 것입니다.</t>
+          <t>나의 부드러운 글램 메이크업 루틴. 모든 메이크업 단계는 거지에게 쉽습니다. 포에버 내추럴 벨벳 매트 콤팩트 파운데이션 클라우드 크러쉬 블러린프 파우더 블러셔 킬라 와트 프리스타일 하이라이터 누드 글로스 립스틱 슈퍼 플러프 브로우 무스 | 하이퍼 컬 마스카라 이탈리안 화이트 트러플 퍼스트 스프레이 세럼</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6.030150753768844</v>
+        <v>9.393939393939393</v>
       </c>
       <c r="I42" t="n">
-        <v>6.030150753768844</v>
+        <v>9.393939393939393</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2544,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2512562814070352</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473365735889308958</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474493207397535007</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644</v>
+        <v>362</v>
       </c>
       <c r="C43" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2578,44 +2589,44 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>My all time fav lippie @YSL Beauty #yslbeauty #grwm #girlthings #makeup #glowskin #grwm #girlthings #makeup #girltherapy #gloss #glossylips</t>
+          <t>내 아기#cat #catsoftiktok #catlover</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>14.28571428571428</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="I43" t="n">
-        <v>13.50931677018634</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7763975155279503</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="L43" t="n">
-        <v>0.15527950310559</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473321027410414878</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474484369697148190</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224</v>
+        <v>566</v>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -2624,94 +2635,98 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>내가 가장 좋아하는 립피 중 하나는 MAC 벨벳 테디 립스틱입니다. 어떤 경우에도 완벽합니다!@MAC Cosmetics USA</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>12.05357142857143</v>
+        <v>12.89752650176678</v>
       </c>
       <c r="I44" t="n">
-        <v>9.821428571428571</v>
+        <v>12.01413427561837</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.232142857142857</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.353356890459364</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7473292764269284639</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474479881762376991</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>내가 좋아하는 유리 피부용 한국 시트 마스크 VT 콜라겐 리드 샷 100 하이드로겔 마스크 카멜리아 딥 콜라겐 퍼밍 젤 마스크 셀마징 퍼밍 젤 마스크 PDRN 핑크 콜라겐 젤리 젤 마스크 시카 바이오메 콜라겐 마스크</t>
+          <t>내 스킨케어 루틴 행오버 필로우 밤 당근 카로틴 데일리 마스크 배리어 부스터 오렌지 발효 에센스, 바나나 브라이트 아이 랑콤 고급 제니피크 래디언스 부스팅 안티에이징 페이스 세럼 바이탈 하이드라 솔루션 워터 크림 글로우 모이스처라이저 히알루론산 마미 와타 미스트 클리어 브로 젤 블레이드 &amp; 쉐이드 나노 브로 펜슬 루즈 퍼 쿠튀르</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>7.053941908713693</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="I45" t="n">
-        <v>6.224066390041494</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8298755186721992</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4149377593360996</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7472938082652704030</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474137520138177822</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>605</v>
+        <v>349</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2724,194 +2739,194 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>푹신한 눈썹@NYX Professional Makeup #nyxprofessionalmakeup #beautytok #brows</t>
+          <t>나랑 같이 준비하지 마! 나는 메이크업을 지울 때 이 부드러운 클렌징 밤을 사용하는 것을 좋아합니다. 프로 콜라겐 클렌징 밤</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.818181818181818</v>
+        <v>8.30945558739255</v>
       </c>
       <c r="I46" t="n">
-        <v>1.652892561983471</v>
+        <v>8.022922636103152</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1652892561983471</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1652892561983471</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-22</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7472643330589953311</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474113315006844190</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>168</v>
+        <v>3126</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>최고의 파우더 파운데이션 - 부드럽고 쉽게 바를 수 있는 포에버 내추럴 벨벳@Diorbeauty #diorbeauty #dior #diormakeup</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2.335252719129878</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.143314139475368</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1919385796545106</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1599488163787588</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7474081223631998239</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>372</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33</v>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>민감한 피부 여행과 마이크로 에센스 트리트먼트 로션 토너에 집착하는 이유를 공유합니다. 건조함, 홍조, 잔주름 - 해결! 이 토너는 제가 좋아하는 것입니다.</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8.928571428571429</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7472622459942882591</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C48" t="n">
-        <v>28</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>내 지갑에 뭐가 들어👜- 미니 놀리타, 주스 콘트라세 파우더 블러셔, 중독성 립 글로우 오일 러브 샤인 립 오일 스틱 클래식 립밤 - 딸기</t>
+          <t>오늘의 내 립글로스 볼륨 립글로스@makeupbymario #grwm #girlthings #makeup #gloss #glossylips</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.505474452554745</v>
+        <v>9.13978494623656</v>
       </c>
       <c r="I48" t="n">
-        <v>1.277372262773723</v>
+        <v>8.870967741935484</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2281021897810219</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="L48" t="n">
-        <v>0.09124087591240876</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-22</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7472177757997305119</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7473750824246578463</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>크리니크의 이 마스카라는 비현실적입니다#giftedbyclinique @Clinique #mascara #makeup #makeuphacks #beauty</t>
+          <t>그녀는 내 아기야#catsoftiktok #catlover</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8.055555555555555</v>
+        <v>7.669616519174041</v>
       </c>
       <c r="I49" t="n">
-        <v>7.5</v>
+        <v>7.374631268436578</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2949852507374631</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thatsophiaaa/video/7472150015679450398</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7473736307055840543</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -2920,30 +2935,84 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>최고의 광채 세팅 스프레이 마미 와타 울트라 진정 구조 안개@EADEM #grwm #girlthings #makeup #glowskin #grwm</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>6.418918918918918</v>
+        <v>7.079646017699115</v>
       </c>
       <c r="I50" t="n">
-        <v>6.081081081081082</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.2949852507374631</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.179941002949852</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thatsophiaaa/video/7473725753738267934</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>398</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>긴 머리를 곧게 펴는 방법 - 비단결 같고 부드럽습니다. 내가 가장 좋아하는 헤어 오일은 완전한 영양 샤인 드롭에서 나온 것입니다.</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6.030150753768844</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.030150753768844</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2512562814070352</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
